--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.5262982610707</v>
+        <v>29.947775</v>
       </c>
       <c r="H2">
-        <v>13.5262982610707</v>
+        <v>89.84332500000001</v>
       </c>
       <c r="I2">
-        <v>0.8655800551730141</v>
+        <v>0.9303126840830549</v>
       </c>
       <c r="J2">
-        <v>0.8655800551730141</v>
+        <v>0.930312684083055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N2">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q2">
-        <v>1103.728289392589</v>
+        <v>3663.47903204855</v>
       </c>
       <c r="R2">
-        <v>1103.728289392589</v>
+        <v>32971.31128843695</v>
       </c>
       <c r="S2">
-        <v>0.8403151770047409</v>
+        <v>0.9101596002940662</v>
       </c>
       <c r="T2">
-        <v>0.8403151770047409</v>
+        <v>0.9101596002940664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.5262982610707</v>
+        <v>29.947775</v>
       </c>
       <c r="H3">
-        <v>13.5262982610707</v>
+        <v>89.84332500000001</v>
       </c>
       <c r="I3">
-        <v>0.8655800551730141</v>
+        <v>0.9303126840830549</v>
       </c>
       <c r="J3">
-        <v>0.8655800551730141</v>
+        <v>0.930312684083055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N3">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q3">
-        <v>3.404875173685014</v>
+        <v>11.57054248826667</v>
       </c>
       <c r="R3">
-        <v>3.404875173685014</v>
+        <v>104.1348823944</v>
       </c>
       <c r="S3">
-        <v>0.002592275935800058</v>
+        <v>0.002874600955588802</v>
       </c>
       <c r="T3">
-        <v>0.002592275935800058</v>
+        <v>0.002874600955588803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.5262982610707</v>
+        <v>29.947775</v>
       </c>
       <c r="H4">
-        <v>13.5262982610707</v>
+        <v>89.84332500000001</v>
       </c>
       <c r="I4">
-        <v>0.8655800551730141</v>
+        <v>0.9303126840830549</v>
       </c>
       <c r="J4">
-        <v>0.8655800551730141</v>
+        <v>0.930312684083055</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N4">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q4">
-        <v>29.77976973749797</v>
+        <v>69.54753819585002</v>
       </c>
       <c r="R4">
-        <v>29.77976973749797</v>
+        <v>625.9278437626501</v>
       </c>
       <c r="S4">
-        <v>0.02267260223247302</v>
+        <v>0.01727848283339984</v>
       </c>
       <c r="T4">
-        <v>0.02267260223247302</v>
+        <v>0.01727848283339985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.924100826037158</v>
+        <v>0.9818753333333333</v>
       </c>
       <c r="H5">
-        <v>0.924100826037158</v>
+        <v>2.945626</v>
       </c>
       <c r="I5">
-        <v>0.059135413736127</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="J5">
-        <v>0.059135413736127</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N5">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q5">
-        <v>75.40542166541979</v>
+        <v>120.1117510650573</v>
       </c>
       <c r="R5">
-        <v>75.40542166541979</v>
+        <v>1081.005759585516</v>
       </c>
       <c r="S5">
-        <v>0.05740934690435944</v>
+        <v>0.02984072308962083</v>
       </c>
       <c r="T5">
-        <v>0.05740934690435944</v>
+        <v>0.02984072308962084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.924100826037158</v>
+        <v>0.9818753333333333</v>
       </c>
       <c r="H6">
-        <v>0.924100826037158</v>
+        <v>2.945626</v>
       </c>
       <c r="I6">
-        <v>0.059135413736127</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="J6">
-        <v>0.059135413736127</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N6">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q6">
-        <v>0.2326170767364603</v>
+        <v>0.3793547354524445</v>
       </c>
       <c r="R6">
-        <v>0.2326170767364603</v>
+        <v>3.414192619072</v>
       </c>
       <c r="S6">
-        <v>0.0001771012502721094</v>
+        <v>9.424739472194757E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001771012502721094</v>
+        <v>9.424739472194757E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.924100826037158</v>
+        <v>0.9818753333333333</v>
       </c>
       <c r="H7">
-        <v>0.924100826037158</v>
+        <v>2.945626</v>
       </c>
       <c r="I7">
-        <v>0.059135413736127</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="J7">
-        <v>0.059135413736127</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N7">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q7">
-        <v>2.034518926203234</v>
+        <v>2.280203195348</v>
       </c>
       <c r="R7">
-        <v>2.034518926203234</v>
+        <v>20.521828758132</v>
       </c>
       <c r="S7">
-        <v>0.001548965581495447</v>
+        <v>0.0005664967127453959</v>
       </c>
       <c r="T7">
-        <v>0.001548965581495447</v>
+        <v>0.0005664967127453959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.17646082057224</v>
+        <v>1.261435</v>
       </c>
       <c r="H8">
-        <v>1.17646082057224</v>
+        <v>3.784305</v>
       </c>
       <c r="I8">
-        <v>0.07528453109085897</v>
+        <v>0.03918584871985675</v>
       </c>
       <c r="J8">
-        <v>0.07528453109085897</v>
+        <v>0.03918584871985676</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N8">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q8">
-        <v>95.99766794768394</v>
+        <v>154.30998372307</v>
       </c>
       <c r="R8">
-        <v>95.99766794768394</v>
+        <v>1388.78985350763</v>
       </c>
       <c r="S8">
-        <v>0.07308709771124403</v>
+        <v>0.03833697746817401</v>
       </c>
       <c r="T8">
-        <v>0.07308709771124403</v>
+        <v>0.03833697746817403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.17646082057224</v>
+        <v>1.261435</v>
       </c>
       <c r="H9">
-        <v>1.17646082057224</v>
+        <v>3.784305</v>
       </c>
       <c r="I9">
-        <v>0.07528453109085897</v>
+        <v>0.03918584871985675</v>
       </c>
       <c r="J9">
-        <v>0.07528453109085897</v>
+        <v>0.03918584871985676</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N9">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q9">
-        <v>0.2961417945594259</v>
+        <v>0.4873646627733333</v>
       </c>
       <c r="R9">
-        <v>0.2961417945594259</v>
+        <v>4.38628196496</v>
       </c>
       <c r="S9">
-        <v>0.0002254653132526446</v>
+        <v>0.0001210815246345733</v>
       </c>
       <c r="T9">
-        <v>0.0002254653132526446</v>
+        <v>0.0001210815246345734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17646082057224</v>
+        <v>1.261435</v>
       </c>
       <c r="H10">
-        <v>1.17646082057224</v>
+        <v>3.784305</v>
       </c>
       <c r="I10">
-        <v>0.07528453109085897</v>
+        <v>0.03918584871985675</v>
       </c>
       <c r="J10">
-        <v>0.07528453109085897</v>
+        <v>0.03918584871985676</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N10">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q10">
-        <v>2.590119755281515</v>
+        <v>2.92942293189</v>
       </c>
       <c r="R10">
-        <v>2.590119755281515</v>
+        <v>26.36480638701</v>
       </c>
       <c r="S10">
-        <v>0.001971968066362291</v>
+        <v>0.0007277897270481607</v>
       </c>
       <c r="T10">
-        <v>0.001971968066362291</v>
+        <v>0.0007277897270481608</v>
       </c>
     </row>
   </sheetData>
